--- a/data/other_data/redox_TnSeq_by_genes.xlsx
+++ b/data/other_data/redox_TnSeq_by_genes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="190">
   <si>
     <t>Rv_ID</t>
   </si>
@@ -28,22 +28,13 @@
     <t>Rv1432</t>
   </si>
   <si>
-    <t>Rv0249c</t>
-  </si>
-  <si>
-    <t>Rv0561c</t>
-  </si>
-  <si>
-    <t>Rv2455c</t>
-  </si>
-  <si>
     <t>Rv0697</t>
   </si>
   <si>
     <t>Rv3559c</t>
   </si>
   <si>
-    <t>Rv2454c</t>
+    <t>Rv0385</t>
   </si>
   <si>
     <t>Rv3057c</t>
@@ -52,472 +43,397 @@
     <t>Rv3502c</t>
   </si>
   <si>
-    <t>Rv0385</t>
-  </si>
-  <si>
-    <t>Rv2971</t>
+    <t>Rv3548c</t>
   </si>
   <si>
     <t>Rv0926c</t>
   </si>
   <si>
-    <t>Rv3548c</t>
+    <t>Rv1714</t>
+  </si>
+  <si>
+    <t>Rv2047c</t>
   </si>
   <si>
     <t>Rv1544</t>
   </si>
   <si>
-    <t>Rv1714</t>
-  </si>
-  <si>
-    <t>Rv0338c</t>
-  </si>
-  <si>
     <t>Rv2509</t>
   </si>
   <si>
+    <t>Rv2000</t>
+  </si>
+  <si>
     <t>Rv2857c</t>
   </si>
   <si>
-    <t>Rv3541c</t>
-  </si>
-  <si>
-    <t>Rv0373c</t>
-  </si>
-  <si>
-    <t>Rv2852c</t>
-  </si>
-  <si>
-    <t>Rv3811</t>
-  </si>
-  <si>
-    <t>Rv2970A</t>
+    <t>Rv1059</t>
+  </si>
+  <si>
+    <t>Rv3603c</t>
   </si>
   <si>
     <t>Rv1543</t>
   </si>
   <si>
-    <t>Rv0097</t>
-  </si>
-  <si>
-    <t>Rv3553</t>
-  </si>
-  <si>
     <t>Rv2997</t>
   </si>
   <si>
+    <t>Rv2366c</t>
+  </si>
+  <si>
+    <t>Rv1928c</t>
+  </si>
+  <si>
+    <t>Rv0940c</t>
+  </si>
+  <si>
+    <t>Rv0943c</t>
+  </si>
+  <si>
     <t>Rv1050</t>
   </si>
   <si>
+    <t>Rv3726</t>
+  </si>
+  <si>
+    <t>Rv0897c</t>
+  </si>
+  <si>
+    <t>Rv0769</t>
+  </si>
+  <si>
+    <t>Rv0082</t>
+  </si>
+  <si>
+    <t>Rv0945</t>
+  </si>
+  <si>
+    <t>Rv0161</t>
+  </si>
+  <si>
+    <t>Rv3463</t>
+  </si>
+  <si>
+    <t>Rv3626c</t>
+  </si>
+  <si>
+    <t>Rv3359</t>
+  </si>
+  <si>
+    <t>Rv0245</t>
+  </si>
+  <si>
+    <t>Rv3719</t>
+  </si>
+  <si>
+    <t>Rv2216</t>
+  </si>
+  <si>
+    <t>Rv0687</t>
+  </si>
+  <si>
     <t>Rv3777</t>
   </si>
   <si>
-    <t>Rv0245</t>
+    <t>Rv0791c</t>
+  </si>
+  <si>
+    <t>Rv3369</t>
+  </si>
+  <si>
+    <t>Rv3178</t>
+  </si>
+  <si>
+    <t>Rv0492c</t>
   </si>
   <si>
     <t>Rv1260</t>
   </si>
   <si>
-    <t>Rv0769</t>
-  </si>
-  <si>
-    <t>Rv0082</t>
-  </si>
-  <si>
-    <t>Rv0218</t>
-  </si>
-  <si>
-    <t>Rv0897c</t>
-  </si>
-  <si>
-    <t>Rv1624c</t>
-  </si>
-  <si>
-    <t>Rv3567c</t>
-  </si>
-  <si>
-    <t>Rv0492c</t>
-  </si>
-  <si>
-    <t>Rv3538</t>
-  </si>
-  <si>
-    <t>Rv0940c</t>
+    <t>Rv2449c</t>
   </si>
   <si>
     <t>Rv1939</t>
   </si>
   <si>
-    <t>Rv1928c</t>
-  </si>
-  <si>
-    <t>Rv3463</t>
-  </si>
-  <si>
-    <t>Rv0791c</t>
-  </si>
-  <si>
-    <t>Rv3230c</t>
-  </si>
-  <si>
-    <t>Rv3018c</t>
-  </si>
-  <si>
-    <t>Rv1752</t>
-  </si>
-  <si>
-    <t>Rv0913c</t>
-  </si>
-  <si>
-    <t>Rv1533</t>
+    <t>Rv1144</t>
   </si>
   <si>
     <t>Rv0785</t>
   </si>
   <si>
-    <t>Rv0687</t>
-  </si>
-  <si>
-    <t>Rv3359</t>
-  </si>
-  <si>
-    <t>Rv0161</t>
-  </si>
-  <si>
-    <t>Rv0148</t>
-  </si>
-  <si>
-    <t>Rv1144</t>
-  </si>
-  <si>
-    <t>Rv3726</t>
-  </si>
-  <si>
-    <t>Rv0945</t>
-  </si>
-  <si>
-    <t>Rv0370c</t>
+    <t>Rv0547c</t>
+  </si>
+  <si>
+    <t>Rv1817</t>
+  </si>
+  <si>
+    <t>Rv1869c</t>
+  </si>
+  <si>
+    <t>Rv1868</t>
+  </si>
+  <si>
+    <t>Rv0565c</t>
+  </si>
+  <si>
+    <t>Rv0851c</t>
+  </si>
+  <si>
+    <t>Rv1871c</t>
+  </si>
+  <si>
+    <t>Rv0121c</t>
+  </si>
+  <si>
+    <t>Rv1751</t>
+  </si>
+  <si>
+    <t>Rv1138c</t>
+  </si>
+  <si>
+    <t>Rv1598c</t>
+  </si>
+  <si>
+    <t>Rv2991</t>
+  </si>
+  <si>
+    <t>Rv0303</t>
+  </si>
+  <si>
+    <t>Rv1393c</t>
+  </si>
+  <si>
+    <t>Rv2129c</t>
+  </si>
+  <si>
+    <t>Rv2263</t>
+  </si>
+  <si>
+    <t>Rv2766c</t>
+  </si>
+  <si>
+    <t>Rv2776c</t>
+  </si>
+  <si>
+    <t>Rv1937</t>
+  </si>
+  <si>
+    <t>Rv2251</t>
+  </si>
+  <si>
+    <t>Rv0083</t>
+  </si>
+  <si>
+    <t>Rv0449c</t>
+  </si>
+  <si>
+    <t>Rv0104</t>
+  </si>
+  <si>
+    <t>Rv0794c</t>
+  </si>
+  <si>
+    <t>Rv3391</t>
+  </si>
+  <si>
+    <t>Rv0892</t>
+  </si>
+  <si>
+    <t>Rv3485c</t>
+  </si>
+  <si>
+    <t>Rv0927c</t>
+  </si>
+  <si>
+    <t>Rv0688</t>
+  </si>
+  <si>
+    <t>Rv3007c</t>
+  </si>
+  <si>
+    <t>Rv3829c</t>
+  </si>
+  <si>
+    <t>Rv1279</t>
+  </si>
+  <si>
+    <t>Rv3224</t>
   </si>
   <si>
     <t>Rv3727</t>
   </si>
   <si>
-    <t>Rv1138c</t>
-  </si>
-  <si>
-    <t>Rv3224</t>
+    <t>Rv3079c</t>
+  </si>
+  <si>
+    <t>Rv2073c</t>
+  </si>
+  <si>
+    <t>Rv3741c</t>
+  </si>
+  <si>
+    <t>Rv3549c</t>
+  </si>
+  <si>
+    <t>Rv2750</t>
   </si>
   <si>
     <t>Rv3530c</t>
   </si>
   <si>
-    <t>Rv3072c</t>
-  </si>
-  <si>
-    <t>Rv0077c</t>
-  </si>
-  <si>
-    <t>Rv0547c</t>
-  </si>
-  <si>
-    <t>Rv3549c</t>
-  </si>
-  <si>
-    <t>Rv3007c</t>
-  </si>
-  <si>
-    <t>Rv3749c</t>
-  </si>
-  <si>
-    <t>Rv2073c</t>
-  </si>
-  <si>
-    <t>Rv2766c</t>
-  </si>
-  <si>
-    <t>Rv0927c</t>
-  </si>
-  <si>
-    <t>Rv0851c</t>
-  </si>
-  <si>
-    <t>Rv3485c</t>
-  </si>
-  <si>
-    <t>Rv3368c</t>
-  </si>
-  <si>
-    <t>Rv1869c</t>
-  </si>
-  <si>
-    <t>Rv2129c</t>
-  </si>
-  <si>
-    <t>Rv2626c</t>
-  </si>
-  <si>
-    <t>Rv0303</t>
-  </si>
-  <si>
-    <t>Rv2750</t>
-  </si>
-  <si>
-    <t>Rv0197</t>
-  </si>
-  <si>
-    <t>Rv2781c</t>
-  </si>
-  <si>
-    <t>Rv0774c</t>
-  </si>
-  <si>
-    <t>Rv1899c</t>
-  </si>
-  <si>
-    <t>Rv2776c</t>
-  </si>
-  <si>
-    <t>Rv3741c</t>
-  </si>
-  <si>
-    <t>Rv1937</t>
-  </si>
-  <si>
-    <t>Rv2953</t>
-  </si>
-  <si>
     <t>Rv0147</t>
   </si>
   <si>
-    <t>Rv3829c</t>
-  </si>
-  <si>
-    <t>Rv0843</t>
-  </si>
-  <si>
-    <t>Rv1279</t>
-  </si>
-  <si>
-    <t>Rv3391</t>
-  </si>
-  <si>
-    <t>Rv1936</t>
-  </si>
-  <si>
-    <t>Rv3406</t>
-  </si>
-  <si>
-    <t>Rv0083</t>
-  </si>
-  <si>
-    <t>Rv1751</t>
-  </si>
-  <si>
-    <t>Rv0794c</t>
-  </si>
-  <si>
-    <t>Rv1817</t>
-  </si>
-  <si>
-    <t>Rv2263</t>
-  </si>
-  <si>
-    <t>Rv0688</t>
-  </si>
-  <si>
-    <t>Rv2438A</t>
-  </si>
-  <si>
-    <t>Rv3351c</t>
-  </si>
-  <si>
-    <t>Rv2032</t>
-  </si>
-  <si>
-    <t>Rv3079c</t>
-  </si>
-  <si>
-    <t>Rv2573</t>
-  </si>
-  <si>
-    <t>Rv3761c</t>
-  </si>
-  <si>
-    <t>Rv2251</t>
-  </si>
-  <si>
-    <t>Rv0306</t>
+    <t>Rv1774</t>
+  </si>
+  <si>
+    <t>Rv1875</t>
+  </si>
+  <si>
+    <t>Rv3174</t>
+  </si>
+  <si>
+    <t>Rv1842c</t>
+  </si>
+  <si>
+    <t>Rv1812c</t>
+  </si>
+  <si>
+    <t>Rv1856c</t>
+  </si>
+  <si>
+    <t>Rv2893</t>
+  </si>
+  <si>
+    <t>Rv1882c</t>
+  </si>
+  <si>
+    <t>Rv1895</t>
+  </si>
+  <si>
+    <t>Rv2298</t>
+  </si>
+  <si>
+    <t>Rv1865c</t>
+  </si>
+  <si>
+    <t>Rv1726</t>
+  </si>
+  <si>
+    <t>Rv1855c</t>
+  </si>
+  <si>
+    <t>Rv1360</t>
+  </si>
+  <si>
+    <t>Rv0484c</t>
+  </si>
+  <si>
+    <t>Rv2161c</t>
+  </si>
+  <si>
+    <t>Rv0770</t>
+  </si>
+  <si>
+    <t>Rv3054c</t>
+  </si>
+  <si>
+    <t>Rv0523c</t>
+  </si>
+  <si>
+    <t>Rv3520c</t>
+  </si>
+  <si>
+    <t>Rv0439c</t>
+  </si>
+  <si>
+    <t>Rv0575c</t>
+  </si>
+  <si>
+    <t>Rv0765c</t>
+  </si>
+  <si>
+    <t>Rv3352c</t>
+  </si>
+  <si>
+    <t>Rv3725</t>
+  </si>
+  <si>
+    <t>Rv3254</t>
+  </si>
+  <si>
+    <t>Rv0925c</t>
+  </si>
+  <si>
+    <t>Rv3742c</t>
+  </si>
+  <si>
+    <t>Rv3093c</t>
+  </si>
+  <si>
+    <t>Rv0953c</t>
+  </si>
+  <si>
+    <t>Rv3129</t>
+  </si>
+  <si>
+    <t>Rv3218</t>
+  </si>
+  <si>
+    <t>Rv0375c</t>
+  </si>
+  <si>
+    <t>Rv2061c</t>
+  </si>
+  <si>
+    <t>Rv0063</t>
+  </si>
+  <si>
+    <t>Rv0068</t>
+  </si>
+  <si>
+    <t>Rv0080</t>
   </si>
   <si>
     <t>Rv0139</t>
   </si>
   <si>
-    <t>Rv3742c</t>
+    <t>Rv0149</t>
+  </si>
+  <si>
+    <t>Rv3403c</t>
+  </si>
+  <si>
+    <t>Rv0331</t>
+  </si>
+  <si>
+    <t>Rv1245c</t>
   </si>
   <si>
     <t>Rv0044c</t>
   </si>
   <si>
-    <t>Rv1855c</t>
-  </si>
-  <si>
-    <t>Rv3353c</t>
-  </si>
-  <si>
-    <t>Rv3096</t>
-  </si>
-  <si>
-    <t>Rv3085</t>
-  </si>
-  <si>
-    <t>Rv3725</t>
-  </si>
-  <si>
-    <t>Rv1882c</t>
-  </si>
-  <si>
-    <t>Rv0063</t>
-  </si>
-  <si>
-    <t>Rv3662c</t>
-  </si>
-  <si>
-    <t>Rv3129</t>
-  </si>
-  <si>
-    <t>Rv3352c</t>
-  </si>
-  <si>
-    <t>Rv0459</t>
-  </si>
-  <si>
-    <t>Rv3520c</t>
-  </si>
-  <si>
     <t>Rv1941</t>
   </si>
   <si>
-    <t>Rv0575c</t>
-  </si>
-  <si>
-    <t>Rv0484c</t>
-  </si>
-  <si>
-    <t>Rv3054c</t>
-  </si>
-  <si>
-    <t>Rv3093c</t>
-  </si>
-  <si>
-    <t>Rv0149</t>
-  </si>
-  <si>
-    <t>Rv1245c</t>
-  </si>
-  <si>
-    <t>Rv1726</t>
-  </si>
-  <si>
-    <t>Rv3547</t>
-  </si>
-  <si>
-    <t>Rv3254</t>
-  </si>
-  <si>
-    <t>Rv1895</t>
-  </si>
-  <si>
-    <t>Rv1990A</t>
-  </si>
-  <si>
-    <t>Rv0331</t>
-  </si>
-  <si>
-    <t>Rv3161c</t>
-  </si>
-  <si>
-    <t>Rv1894c</t>
-  </si>
-  <si>
-    <t>Rv0369c</t>
-  </si>
-  <si>
-    <t>Rv1075c</t>
-  </si>
-  <si>
-    <t>Rv1856c</t>
-  </si>
-  <si>
-    <t>Rv1360</t>
+    <t>Rv3049c</t>
   </si>
   <si>
     <t>Rv1257c</t>
   </si>
   <si>
-    <t>Rv1774</t>
-  </si>
-  <si>
-    <t>Rv0953c</t>
-  </si>
-  <si>
-    <t>Rv0654</t>
-  </si>
-  <si>
-    <t>Rv0439c</t>
-  </si>
-  <si>
-    <t>Rv0770</t>
-  </si>
-  <si>
-    <t>Rv1812c</t>
-  </si>
-  <si>
-    <t>Rv0765c</t>
-  </si>
-  <si>
-    <t>Rv0068</t>
-  </si>
-  <si>
-    <t>Rv0374c</t>
-  </si>
-  <si>
-    <t>Rv0375c</t>
-  </si>
-  <si>
-    <t>Rv2893</t>
-  </si>
-  <si>
-    <t>Rv2951c</t>
-  </si>
-  <si>
-    <t>Rv3174</t>
-  </si>
-  <si>
-    <t>Rv1865c</t>
-  </si>
-  <si>
-    <t>Rv0274</t>
-  </si>
-  <si>
     <t>['2011_Griffin_2', '2013_Zhang_1', '2013_Zhang_2', '2018_Carey_1A', '2018_Carey_1B', '2018_Carey_1C', '2018_Carey_1D', '2018_Carey_1F', '2018_Rittershaus_1A', '2018_Rittershaus_1B', 'Rv3916c', 'marP', 'Rv0307c']</t>
   </si>
   <si>
-    <t>['2003B_Sassetti', '2013_DeJesus', '2013_Zhang_1', '2016_Nambi', '2017B_DeJesus_1A', '2017B_DeJesus_1C', '2017_Xu_1C', '2017_Xu_1E', '2018_Rittershaus_1A', 'ponA1', 'Rv3717', 'Rv0307c']</t>
-  </si>
-  <si>
-    <t>['2005_Rengarajan', '2013_Zhang_1', '2013_Zhang_3C', '2016_Nambi', '2018_Rittershaus_1A', 'Rv3717', 'Rv3916c', 'Rv0307c']</t>
-  </si>
-  <si>
-    <t>['2012_Zhang', '2013_DeJesus', '2013_Zhang_1', '2017A_DeJesus', '2017_Xu_1C', '2018_Carey_1C', 'ponA1', 'marP']</t>
-  </si>
-  <si>
     <t>['2003A_Sassetti', '2012_Zhang', '2013_DeJesus', '2016_Nambi', '2017A_DeJesus', 'Rv3916c']</t>
   </si>
   <si>
     <t>['2003A_Sassetti', '2011_Griffin_2', '2013_Zhang_1', 'Rv3916c', 'marP', 'Rv0307c']</t>
   </si>
   <si>
-    <t>['2012_Zhang', '2013_DeJesus', '2013_Zhang_1', '2017A_DeJesus', '2017_Xu_1C', 'marP']</t>
+    <t>['2015_Mendum', '2017B_DeJesus_1B', 'Rv3005c', 'Rv1565c', 'marP']</t>
   </si>
   <si>
     <t>['2013_Zhang_1', '2015_Mendum', '2017B_DeJesus_1B', 'Rv1565c', 'Rv3717']</t>
@@ -526,169 +442,145 @@
     <t>['2003B_Sassetti', '2006_Joshi_GI_2', '2011_Griffin_2', '2013_Zhang_1', '2013_Zhang_2']</t>
   </si>
   <si>
-    <t>['2015_Mendum', '2017B_DeJesus_1B', 'Rv3005c', 'Rv1565c', 'marP']</t>
-  </si>
-  <si>
-    <t>['2003A_Sassetti', '2012_Zhang', '2013_DeJesus', '2017A_DeJesus']</t>
+    <t>['2011_Griffin_2', '2013_Zhang_1', 'Rv3916c', 'Rv0307c']</t>
   </si>
   <si>
     <t>['2013_Zhang_1', '2013_Zhang_2', 'Rv3005c', 'Rv0307c']</t>
   </si>
   <si>
-    <t>['2011_Griffin_2', '2013_Zhang_1', 'Rv3916c', 'Rv0307c']</t>
+    <t>['2003A_Sassetti', '2018_Carey_1D', 'Rv3005c', 'Rv0307c']</t>
+  </si>
+  <si>
+    <t>['2013_DeJesus', '2013_Zhang_1', '2013_Zhang_3C', 'ponA1']</t>
   </si>
   <si>
     <t>['2013_Zhang_1', '2017B_DeJesus_1B', 'Rv1565c', 'Rv1432']</t>
   </si>
   <si>
-    <t>['2003A_Sassetti', '2018_Carey_1D', 'Rv3005c', 'Rv0307c']</t>
-  </si>
-  <si>
     <t>['2012_Zhang', '2013_DeJesus', '2017A_DeJesus']</t>
   </si>
   <si>
+    <t>['2015_Mendum', '2016_Korte', 'Rv3005c']</t>
+  </si>
+  <si>
     <t>['2003B_Sassetti', '2013_Zhang_1', '2013_Zhang_2']</t>
   </si>
   <si>
-    <t>['2003B_Sassetti', '2005_Rengarajan', '2006_Joshi_GI_1']</t>
-  </si>
-  <si>
-    <t>['2012_Zhang', '2015_Mendum', 'Rv3005c']</t>
-  </si>
-  <si>
-    <t>['2017B_DeJesus_1B', 'Rv1565c', 'Rv1432']</t>
-  </si>
-  <si>
-    <t>['2017_Xu_1B', '2017_Xu_1E', 'Rv3811']</t>
-  </si>
-  <si>
-    <t>['Rv1565c', 'Rv3916c', 'Rv0307c']</t>
+    <t>['2013_Zhang_1', 'Rv1565c', 'Rv0307c']</t>
   </si>
   <si>
     <t>['2013_Zhang_1', 'Rv3005c', 'Rv3717']</t>
   </si>
   <si>
-    <t>['2017_Mishra_1B', 'Rv1565c', 'ponA1']</t>
-  </si>
-  <si>
-    <t>['2011_Griffin_2', '2013_Zhang_1', 'Rv1565c']</t>
-  </si>
-  <si>
     <t>['2012_Zhang', '2013_Zhang_1', '2017B_DeJesus_1C']</t>
   </si>
   <si>
+    <t>['2017B_DeJesus_1C', 'Rv1565c', 'Rv2680']</t>
+  </si>
+  <si>
+    <t>['2013_Zhang_1', '2015_Mendum']</t>
+  </si>
+  <si>
+    <t>['2013_Zhang_1', 'Rv3005c']</t>
+  </si>
+  <si>
+    <t>['2015_Mendum', 'Rv0307c']</t>
+  </si>
+  <si>
     <t>['2013_Zhang_1', '2016_Nambi']</t>
   </si>
   <si>
-    <t>['2013_Zhang_1', 'Rv3005c']</t>
+    <t>['Rv3005c', 'Rv3916c']</t>
+  </si>
+  <si>
+    <t>['Rv3005c', 'Rv0307c']</t>
+  </si>
+  <si>
+    <t>['Rv3005c', 'Rv1432']</t>
+  </si>
+  <si>
+    <t>['2005_Rengarajan', '2016_Nambi']</t>
+  </si>
+  <si>
+    <t>['2018_Rittershaus_1A', 'Rv0307c']</t>
+  </si>
+  <si>
+    <t>['2017B_DeJesus_1C', 'Rv0307c']</t>
+  </si>
+  <si>
+    <t>['Rv3005c', 'marP']</t>
   </si>
   <si>
     <t>['Rv1565c', 'Rv3916c']</t>
   </si>
   <si>
+    <t>['2017_Xu_1B', 'marP']</t>
+  </si>
+  <si>
+    <t>['2003B_Sassetti', '2013_Zhang_1']</t>
+  </si>
+  <si>
+    <t>['Rv3916c', 'Rv0307c']</t>
+  </si>
+  <si>
+    <t>['2003B_Sassetti', '2006_Joshi_GI_2']</t>
+  </si>
+  <si>
+    <t>['2016_Korte', 'Rv0307c']</t>
+  </si>
+  <si>
     <t>['2012_Zhang', '2013_Zhang_1']</t>
   </si>
   <si>
-    <t>['Rv3005c', 'Rv1432']</t>
-  </si>
-  <si>
-    <t>['2005_Rengarajan', '2016_Nambi']</t>
-  </si>
-  <si>
-    <t>['2003B_Sassetti', '2006_Joshi_GI_1']</t>
-  </si>
-  <si>
-    <t>['Rv3005c', 'Rv0307c']</t>
-  </si>
-  <si>
-    <t>['2013_Zhang_1', 'Rv0307c']</t>
-  </si>
-  <si>
-    <t>['2016_Korte', 'Rv0307c']</t>
-  </si>
-  <si>
-    <t>['2003A_Sassetti', '2012_Zhang']</t>
+    <t>['2015_Mendum', 'Rv3005c']</t>
   </si>
   <si>
     <t>['2003B_Sassetti', '2016_Nambi']</t>
   </si>
   <si>
-    <t>['2013_Zhang_1', '2015_Mendum']</t>
-  </si>
-  <si>
-    <t>['Rv3005c', 'marP']</t>
-  </si>
-  <si>
-    <t>['Rv3916c', 'Rv0307c']</t>
-  </si>
-  <si>
-    <t>['2013_DeJesus', 'ponA1']</t>
-  </si>
-  <si>
-    <t>['2012_Zhang', '2013_DeJesus']</t>
-  </si>
-  <si>
     <t>['2012_Zhang', 'Rv0307c']</t>
   </si>
   <si>
-    <t>['2003B_Sassetti', '2013_Zhang_1']</t>
-  </si>
-  <si>
-    <t>['2015_Mendum', 'Rv0307c']</t>
-  </si>
-  <si>
-    <t>['2017B_DeJesus_1C', 'Rv0307c']</t>
-  </si>
-  <si>
-    <t>['Rv3005c', 'Rv3916c']</t>
-  </si>
-  <si>
-    <t>['2018_Rittershaus_1A', 'Rv0307c']</t>
-  </si>
-  <si>
-    <t>['2013_Zhang_1', 'Rv3916c']</t>
+    <t>['Rv3005c']</t>
   </si>
   <si>
     <t>['2015_Mendum']</t>
   </si>
   <si>
+    <t>['Rv1565c']</t>
+  </si>
+  <si>
+    <t>['Rv0307c']</t>
+  </si>
+  <si>
+    <t>['Rv3916c']</t>
+  </si>
+  <si>
+    <t>['2016_Nambi']</t>
+  </si>
+  <si>
+    <t>['2017B_DeJesus_1C']</t>
+  </si>
+  <si>
+    <t>['2013_Zhang_1']</t>
+  </si>
+  <si>
+    <t>['2012_Zhang']</t>
+  </si>
+  <si>
+    <t>['2003A_Sassetti']</t>
+  </si>
+  <si>
+    <t>['2016_Korte']</t>
+  </si>
+  <si>
     <t>['Rv2680']</t>
   </si>
   <si>
-    <t>['2012_Zhang']</t>
-  </si>
-  <si>
-    <t>['Rv0307c']</t>
-  </si>
-  <si>
-    <t>['2017B_DeJesus_1C']</t>
-  </si>
-  <si>
-    <t>['Rv3005c']</t>
+    <t>['Rv1432']</t>
   </si>
   <si>
     <t>['2011_Griffin_2']</t>
-  </si>
-  <si>
-    <t>['Rv1432']</t>
-  </si>
-  <si>
-    <t>['Rv3916c']</t>
-  </si>
-  <si>
-    <t>['2017_Xu_1E']</t>
-  </si>
-  <si>
-    <t>['2013_Zhang_1']</t>
-  </si>
-  <si>
-    <t>['2017A_DeJesus']</t>
-  </si>
-  <si>
-    <t>['Rv1565c']</t>
-  </si>
-  <si>
-    <t>['2003A_Sassetti']</t>
   </si>
   <si>
     <t>[]</t>
@@ -1049,7 +941,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C159"/>
+  <dimension ref="A1:C134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1074,7 +966,7 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1082,10 +974,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1093,10 +985,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1104,10 +996,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1115,10 +1007,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1126,10 +1018,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1137,10 +1029,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1148,10 +1040,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1159,10 +1051,10 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1170,10 +1062,10 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1184,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1192,10 +1084,10 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1203,10 +1095,10 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1214,10 +1106,10 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1225,10 +1117,10 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1236,10 +1128,10 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1250,7 +1142,7 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1261,7 +1153,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1272,7 +1164,7 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1280,10 +1172,10 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1291,10 +1183,10 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1302,10 +1194,10 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1313,10 +1205,10 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1324,10 +1216,10 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1335,10 +1227,10 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1346,10 +1238,10 @@
         <v>28</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1357,10 +1249,10 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1371,7 +1263,7 @@
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1382,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1393,7 +1285,7 @@
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1404,7 +1296,7 @@
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1415,7 +1307,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1426,7 +1318,7 @@
         <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1437,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1448,7 +1340,7 @@
         <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1459,7 +1351,7 @@
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1470,7 +1362,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1481,7 +1373,7 @@
         <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1492,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>197</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1503,7 +1395,7 @@
         <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1514,7 +1406,7 @@
         <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1525,7 +1417,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1536,7 +1428,7 @@
         <v>2</v>
       </c>
       <c r="C44" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1547,7 +1439,7 @@
         <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1558,7 +1450,7 @@
         <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>202</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1569,7 +1461,7 @@
         <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1577,10 +1469,10 @@
         <v>49</v>
       </c>
       <c r="B48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1588,10 +1480,10 @@
         <v>50</v>
       </c>
       <c r="B49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1599,10 +1491,10 @@
         <v>51</v>
       </c>
       <c r="B50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1610,10 +1502,10 @@
         <v>52</v>
       </c>
       <c r="B51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1621,10 +1513,10 @@
         <v>53</v>
       </c>
       <c r="B52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1632,10 +1524,10 @@
         <v>54</v>
       </c>
       <c r="B53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1643,10 +1535,10 @@
         <v>55</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1654,10 +1546,10 @@
         <v>56</v>
       </c>
       <c r="B55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1665,10 +1557,10 @@
         <v>57</v>
       </c>
       <c r="B56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1676,10 +1568,10 @@
         <v>58</v>
       </c>
       <c r="B57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>208</v>
+        <v>176</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1687,10 +1579,10 @@
         <v>59</v>
       </c>
       <c r="B58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1698,10 +1590,10 @@
         <v>60</v>
       </c>
       <c r="B59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>210</v>
+        <v>175</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1712,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1723,7 +1615,7 @@
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1734,7 +1626,7 @@
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1745,7 +1637,7 @@
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1756,7 +1648,7 @@
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>214</v>
+        <v>178</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1767,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>215</v>
+        <v>182</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1778,7 +1670,7 @@
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1789,7 +1681,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>217</v>
+        <v>184</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1800,7 +1692,7 @@
         <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>216</v>
+        <v>175</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1811,7 +1703,7 @@
         <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>216</v>
+        <v>185</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1822,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>218</v>
+        <v>176</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1833,7 +1725,7 @@
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1844,7 +1736,7 @@
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>216</v>
+        <v>176</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1855,7 +1747,7 @@
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1866,7 +1758,7 @@
         <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>216</v>
+        <v>175</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1877,7 +1769,7 @@
         <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>216</v>
+        <v>175</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1888,7 +1780,7 @@
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>211</v>
+        <v>178</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1899,7 +1791,7 @@
         <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>215</v>
+        <v>175</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1910,7 +1802,7 @@
         <v>1</v>
       </c>
       <c r="C78" t="s">
-        <v>219</v>
+        <v>176</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1921,7 +1813,7 @@
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>216</v>
+        <v>175</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1932,7 +1824,7 @@
         <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1943,7 +1835,7 @@
         <v>1</v>
       </c>
       <c r="C81" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1954,7 +1846,7 @@
         <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>220</v>
+        <v>176</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1965,7 +1857,7 @@
         <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1976,7 +1868,7 @@
         <v>1</v>
       </c>
       <c r="C84" t="s">
-        <v>216</v>
+        <v>179</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1987,7 +1879,7 @@
         <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>221</v>
+        <v>188</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1998,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>219</v>
+        <v>175</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2009,7 +1901,7 @@
         <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2020,7 +1912,7 @@
         <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2028,10 +1920,10 @@
         <v>90</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2039,10 +1931,10 @@
         <v>91</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C90" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2050,10 +1942,10 @@
         <v>92</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2061,10 +1953,10 @@
         <v>93</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2072,10 +1964,10 @@
         <v>94</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C93" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2083,10 +1975,10 @@
         <v>95</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2094,10 +1986,10 @@
         <v>96</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2105,10 +1997,10 @@
         <v>97</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2116,10 +2008,10 @@
         <v>98</v>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C97" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2127,10 +2019,10 @@
         <v>99</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C98" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2138,10 +2030,10 @@
         <v>100</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2149,10 +2041,10 @@
         <v>101</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C100" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2160,10 +2052,10 @@
         <v>102</v>
       </c>
       <c r="B101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C101" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2171,10 +2063,10 @@
         <v>103</v>
       </c>
       <c r="B102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C102" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2182,10 +2074,10 @@
         <v>104</v>
       </c>
       <c r="B103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C103" t="s">
-        <v>223</v>
+        <v>189</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2193,10 +2085,10 @@
         <v>105</v>
       </c>
       <c r="B104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C104" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2204,10 +2096,10 @@
         <v>106</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C105" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2215,10 +2107,10 @@
         <v>107</v>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C106" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2226,10 +2118,10 @@
         <v>108</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C107" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2237,10 +2129,10 @@
         <v>109</v>
       </c>
       <c r="B108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C108" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2248,10 +2140,10 @@
         <v>110</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C109" t="s">
-        <v>223</v>
+        <v>189</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2262,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="C110" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2273,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="C111" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2284,7 +2176,7 @@
         <v>0</v>
       </c>
       <c r="C112" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2295,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="C113" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2306,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="C114" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2317,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="C115" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2328,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="C116" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2339,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="C117" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2350,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="C118" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2361,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="C119" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2372,7 +2264,7 @@
         <v>0</v>
       </c>
       <c r="C120" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2383,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="C121" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2394,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="C122" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2405,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="C123" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2416,7 +2308,7 @@
         <v>0</v>
       </c>
       <c r="C124" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2427,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="C125" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2438,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="C126" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2449,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="C127" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2460,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="C128" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2471,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="C129" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2482,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="C130" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2493,7 +2385,7 @@
         <v>0</v>
       </c>
       <c r="C131" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2504,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="C132" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2515,7 +2407,7 @@
         <v>0</v>
       </c>
       <c r="C133" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2526,282 +2418,7 @@
         <v>0</v>
       </c>
       <c r="C134" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" t="s">
-        <v>136</v>
-      </c>
-      <c r="B135">
-        <v>0</v>
-      </c>
-      <c r="C135" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" t="s">
-        <v>137</v>
-      </c>
-      <c r="B136">
-        <v>0</v>
-      </c>
-      <c r="C136" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" t="s">
-        <v>138</v>
-      </c>
-      <c r="B137">
-        <v>0</v>
-      </c>
-      <c r="C137" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" t="s">
-        <v>139</v>
-      </c>
-      <c r="B138">
-        <v>0</v>
-      </c>
-      <c r="C138" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" t="s">
-        <v>140</v>
-      </c>
-      <c r="B139">
-        <v>0</v>
-      </c>
-      <c r="C139" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" t="s">
-        <v>141</v>
-      </c>
-      <c r="B140">
-        <v>0</v>
-      </c>
-      <c r="C140" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141" t="s">
-        <v>142</v>
-      </c>
-      <c r="B141">
-        <v>0</v>
-      </c>
-      <c r="C141" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142" t="s">
-        <v>143</v>
-      </c>
-      <c r="B142">
-        <v>0</v>
-      </c>
-      <c r="C142" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="A143" t="s">
-        <v>144</v>
-      </c>
-      <c r="B143">
-        <v>0</v>
-      </c>
-      <c r="C143" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
-      <c r="A144" t="s">
-        <v>145</v>
-      </c>
-      <c r="B144">
-        <v>0</v>
-      </c>
-      <c r="C144" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145" t="s">
-        <v>146</v>
-      </c>
-      <c r="B145">
-        <v>0</v>
-      </c>
-      <c r="C145" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146" t="s">
-        <v>147</v>
-      </c>
-      <c r="B146">
-        <v>0</v>
-      </c>
-      <c r="C146" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
-      <c r="A147" t="s">
-        <v>148</v>
-      </c>
-      <c r="B147">
-        <v>0</v>
-      </c>
-      <c r="C147" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
-      <c r="A148" t="s">
-        <v>149</v>
-      </c>
-      <c r="B148">
-        <v>0</v>
-      </c>
-      <c r="C148" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="A149" t="s">
-        <v>150</v>
-      </c>
-      <c r="B149">
-        <v>0</v>
-      </c>
-      <c r="C149" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150" t="s">
-        <v>151</v>
-      </c>
-      <c r="B150">
-        <v>0</v>
-      </c>
-      <c r="C150" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="A151" t="s">
-        <v>152</v>
-      </c>
-      <c r="B151">
-        <v>0</v>
-      </c>
-      <c r="C151" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="A152" t="s">
-        <v>153</v>
-      </c>
-      <c r="B152">
-        <v>0</v>
-      </c>
-      <c r="C152" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153" t="s">
-        <v>154</v>
-      </c>
-      <c r="B153">
-        <v>0</v>
-      </c>
-      <c r="C153" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="A154" t="s">
-        <v>155</v>
-      </c>
-      <c r="B154">
-        <v>0</v>
-      </c>
-      <c r="C154" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
-      <c r="A155" t="s">
-        <v>156</v>
-      </c>
-      <c r="B155">
-        <v>0</v>
-      </c>
-      <c r="C155" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
-      <c r="A156" t="s">
-        <v>157</v>
-      </c>
-      <c r="B156">
-        <v>0</v>
-      </c>
-      <c r="C156" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
-      <c r="A157" t="s">
-        <v>158</v>
-      </c>
-      <c r="B157">
-        <v>0</v>
-      </c>
-      <c r="C157" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
-      <c r="A158" t="s">
-        <v>159</v>
-      </c>
-      <c r="B158">
-        <v>0</v>
-      </c>
-      <c r="C158" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
-      <c r="A159" t="s">
-        <v>160</v>
-      </c>
-      <c r="B159">
-        <v>0</v>
-      </c>
-      <c r="C159" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
